--- a/VenusAddresses.xlsx
+++ b/VenusAddresses.xlsx
@@ -86,9 +86,6 @@
     <t>7BIT</t>
   </si>
   <si>
-    <t>8BIT</t>
-  </si>
-  <si>
     <t>Device</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>8BIT (7BIT&lt;&lt;1)</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,15 +541,15 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -599,11 +599,11 @@
         <f t="shared" ref="F3:F18" si="1">DEC2BIN(E3,8)</f>
         <v>00110110</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -629,11 +629,11 @@
         <f t="shared" si="1"/>
         <v>00111110</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -659,11 +659,11 @@
         <f t="shared" si="1"/>
         <v>01000100</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,11 +689,11 @@
         <f t="shared" si="1"/>
         <v>01001000</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -719,11 +719,11 @@
         <f t="shared" si="1"/>
         <v>01001010</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>01011000</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,11 +803,11 @@
         <f t="shared" si="1"/>
         <v>01011110</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>35</v>
+      <c r="G10" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,11 +881,11 @@
         <f t="shared" si="1"/>
         <v>10101100</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -912,10 +912,10 @@
         <v>10101110</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
         <v>10111110</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>18</v>
@@ -971,11 +971,11 @@
         <f t="shared" si="1"/>
         <v>11100100</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>36</v>
+      <c r="G16" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,11 +1001,11 @@
         <f t="shared" si="1"/>
         <v>11100110</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1031,11 +1031,11 @@
         <f t="shared" si="1"/>
         <v>11101010</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
+      <c r="G18" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/VenusAddresses.xlsx
+++ b/VenusAddresses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>1B</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>8BIT (7BIT&lt;&lt;1)</t>
+  </si>
+  <si>
+    <t>glitches as 0x30 sometimes?</t>
   </si>
 </sst>
 </file>
@@ -222,12 +225,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -235,6 +232,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,451 +533,454 @@
     <col min="4" max="4" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>18</v>
       </c>
-      <c r="B2" s="5">
-        <f>HEX2DEC(A2)</f>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B18" si="0">HEX2DEC(A2)</f>
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="3" t="str">
         <f>DEC2BIN(B2,7)</f>
         <v>0011000</v>
       </c>
       <c r="D2" s="2">
         <v>30</v>
       </c>
-      <c r="E2" s="6">
-        <f>HEX2DEC(D2)</f>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E18" si="1">HEX2DEC(D2)</f>
         <v>48</v>
       </c>
-      <c r="F2" s="6" t="str">
+      <c r="F2" s="4" t="str">
         <f>DEC2BIN(E2,8)</f>
         <v>00110000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
-        <f>HEX2DEC(A3)</f>
+      <c r="B3" s="3">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C18" si="0">DEC2BIN(B3,7)</f>
+      <c r="C3" s="3" t="str">
+        <f t="shared" ref="C3:C18" si="2">DEC2BIN(B3,7)</f>
         <v>0011011</v>
       </c>
       <c r="D3" s="2">
         <v>36</v>
       </c>
-      <c r="E3" s="6">
-        <f>HEX2DEC(D3)</f>
+      <c r="E3" s="4">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="F3" s="6" t="str">
-        <f t="shared" ref="F3:F18" si="1">DEC2BIN(E3,8)</f>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F18" si="3">DEC2BIN(E3,8)</f>
         <v>00110110</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
-        <f>HEX2DEC(A4)</f>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>0011111</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6">
-        <f>HEX2DEC(D4)</f>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="F4" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>00111110</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>22</v>
       </c>
-      <c r="B5" s="5">
-        <f>HEX2DEC(A5)</f>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C5" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>0100010</v>
       </c>
       <c r="D5" s="2">
         <v>44</v>
       </c>
-      <c r="E5" s="6">
-        <f>HEX2DEC(D5)</f>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="F5" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>01000100</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
-        <f>HEX2DEC(A6)</f>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>0100100</v>
       </c>
       <c r="D6" s="2">
         <v>48</v>
       </c>
-      <c r="E6" s="6">
-        <f>HEX2DEC(D6)</f>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="F6" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>01001000</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>25</v>
       </c>
-      <c r="B7" s="5">
-        <f>HEX2DEC(A7)</f>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>0100101</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="6">
-        <f>HEX2DEC(D7)</f>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="F7" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>01001010</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5">
-        <f>HEX2DEC(A8)</f>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C8" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>0101100</v>
       </c>
       <c r="D8" s="2">
         <v>58</v>
       </c>
-      <c r="E8" s="6">
-        <f>HEX2DEC(D8)</f>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="F8" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>01011000</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5">
-        <f>HEX2DEC(A9)</f>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C9" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>0101101</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6">
-        <f>HEX2DEC(D9)</f>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="F9" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>01011010</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5">
-        <f>HEX2DEC(A10)</f>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C10" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>0101111</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6">
-        <f>HEX2DEC(D10)</f>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="F10" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>01011110</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>50</v>
       </c>
-      <c r="B11" s="5">
-        <f>HEX2DEC(A11)</f>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C11" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>1010000</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6">
-        <f>HEX2DEC(D11)</f>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="F11" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>10100000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>51</v>
       </c>
-      <c r="B12" s="5">
-        <f>HEX2DEC(A12)</f>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="C12" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>1010001</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6">
-        <f>HEX2DEC(D12)</f>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="F12" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>10100010</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>56</v>
       </c>
-      <c r="B13" s="5">
-        <f>HEX2DEC(A13)</f>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="C13" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>1010110</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6">
-        <f>HEX2DEC(D13)</f>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="F13" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>10101100</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>57</v>
       </c>
-      <c r="B14" s="5">
-        <f>HEX2DEC(A14)</f>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="C14" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>1010111</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="6">
-        <f>HEX2DEC(D14)</f>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="F14" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>10101110</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5">
-        <f>HEX2DEC(A15)</f>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="C15" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>1011111</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6">
-        <f>HEX2DEC(D15)</f>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="F15" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>10111110</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>72</v>
       </c>
-      <c r="B16" s="5">
-        <f>HEX2DEC(A16)</f>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="C16" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>1110010</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="6">
-        <f>HEX2DEC(D16)</f>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
         <v>228</v>
       </c>
-      <c r="F16" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>11100100</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -982,29 +988,29 @@
       <c r="A17" s="1">
         <v>73</v>
       </c>
-      <c r="B17" s="5">
-        <f>HEX2DEC(A17)</f>
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="C17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>1110011</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="6">
-        <f>HEX2DEC(D17)</f>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="F17" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>11100110</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1012,29 +1018,29 @@
       <c r="A18" s="1">
         <v>75</v>
       </c>
-      <c r="B18" s="5">
-        <f>HEX2DEC(A18)</f>
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="C18" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>1110101</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="6">
-        <f>HEX2DEC(D18)</f>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="F18" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>11101010</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/VenusAddresses.xlsx
+++ b/VenusAddresses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="6795"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14805" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>1B</t>
   </si>
@@ -80,9 +80,6 @@
     <t>EA</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
     <t>7BIT</t>
   </si>
   <si>
@@ -119,15 +116,9 @@
     <t>AD5245</t>
   </si>
   <si>
-    <t>27LC64IST</t>
-  </si>
-  <si>
     <t>ToneGen</t>
   </si>
   <si>
-    <t>PCA9306DCU</t>
-  </si>
-  <si>
     <t>SC18IS602BIPW</t>
   </si>
   <si>
@@ -140,7 +131,16 @@
     <t>8BIT (7BIT&lt;&lt;1)</t>
   </si>
   <si>
-    <t>glitches as 0x30 sometimes?</t>
+    <t>24LC64IST</t>
+  </si>
+  <si>
+    <t>SM5882</t>
+  </si>
+  <si>
+    <t>Pressure - thru PCA9306DCU</t>
+  </si>
+  <si>
+    <t>ToneGen - to AD9833BRMZ (SS0) @3.6864MHZ</t>
   </si>
 </sst>
 </file>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,25 +537,25 @@
     <col min="8" max="8" width="22.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>18</v>
       </c>
@@ -579,7 +579,7 @@
         <v>00110000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,13 +603,13 @@
         <v>00110110</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,13 +633,13 @@
         <v>00111110</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -663,13 +663,13 @@
         <v>01000100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>24</v>
       </c>
@@ -693,13 +693,13 @@
         <v>01001000</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -723,13 +723,13 @@
         <v>01001010</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -753,13 +753,13 @@
         <v>01011000</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -783,7 +783,7 @@
         <v>01011010</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,16 +807,13 @@
         <v>01011110</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>50</v>
       </c>
@@ -840,7 +837,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>51</v>
       </c>
@@ -864,7 +861,7 @@
         <v>10100010</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>56</v>
       </c>
@@ -888,13 +885,13 @@
         <v>10101100</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>57</v>
       </c>
@@ -918,13 +915,13 @@
         <v>10101110</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -948,13 +945,13 @@
         <v>10111110</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>72</v>
       </c>
@@ -978,10 +975,10 @@
         <v>11100100</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1008,10 +1005,10 @@
         <v>11100110</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1038,10 +1035,10 @@
         <v>11101010</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/VenusAddresses.xlsx
+++ b/VenusAddresses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14805" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>1B</t>
   </si>
@@ -80,6 +80,9 @@
     <t>EA</t>
   </si>
   <si>
+    <t>Pressure</t>
+  </si>
+  <si>
     <t>7BIT</t>
   </si>
   <si>
@@ -116,9 +119,15 @@
     <t>AD5245</t>
   </si>
   <si>
+    <t>27LC64IST</t>
+  </si>
+  <si>
     <t>ToneGen</t>
   </si>
   <si>
+    <t>PCA9306DCU</t>
+  </si>
+  <si>
     <t>SC18IS602BIPW</t>
   </si>
   <si>
@@ -131,16 +140,7 @@
     <t>8BIT (7BIT&lt;&lt;1)</t>
   </si>
   <si>
-    <t>24LC64IST</t>
-  </si>
-  <si>
-    <t>SM5882</t>
-  </si>
-  <si>
-    <t>Pressure - thru PCA9306DCU</t>
-  </si>
-  <si>
-    <t>ToneGen - to AD9833BRMZ (SS0) @3.6864MHZ</t>
+    <t>glitches as 0x30 sometimes?</t>
   </si>
 </sst>
 </file>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,25 +537,25 @@
     <col min="8" max="8" width="22.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>18</v>
       </c>
@@ -579,7 +579,7 @@
         <v>00110000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,13 +603,13 @@
         <v>00110110</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,13 +633,13 @@
         <v>00111110</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -663,13 +663,13 @@
         <v>01000100</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>24</v>
       </c>
@@ -693,13 +693,13 @@
         <v>01001000</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -723,13 +723,13 @@
         <v>01001010</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -753,13 +753,13 @@
         <v>01011000</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -783,7 +783,7 @@
         <v>01011010</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,13 +807,16 @@
         <v>01011110</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>50</v>
       </c>
@@ -837,7 +840,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>51</v>
       </c>
@@ -861,7 +864,7 @@
         <v>10100010</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>56</v>
       </c>
@@ -885,13 +888,13 @@
         <v>10101100</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>57</v>
       </c>
@@ -915,13 +918,13 @@
         <v>10101110</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,13 +948,13 @@
         <v>10111110</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>72</v>
       </c>
@@ -975,10 +978,10 @@
         <v>11100100</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1005,10 +1008,10 @@
         <v>11100110</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,10 +1038,10 @@
         <v>11101010</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
